--- a/варианты/простоегэ/4/22.xlsx
+++ b/варианты/простоегэ/4/22.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -180,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,7 +352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -368,7 +363,7 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +371,8 @@
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.5703125" style="1"/>
+    <col min="4" max="23" width="4.140625" style="1" customWidth="1"/>
+    <col min="24" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -526,12 +522,6 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -545,6 +535,12 @@
         <v>1</v>
       </c>
       <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -604,12 +600,6 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -629,6 +619,12 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -639,11 +635,11 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ref="E9:W9" si="0">SUM(E2:E8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -674,11 +670,11 @@
         <v>2</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(N2:N8)</f>
         <v>2</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(O2:O8)</f>
         <v>2</v>
       </c>
       <c r="P9" s="1">
@@ -703,20 +699,20 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:W4 D9:W9 E8:W8 D6:W7 D5:L5 N5:W5">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D2:W4 D9:W9 D6:W7 P5:W5 D5:G5 G8:W8">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
